--- a/05 Sent to client/A4_final_report_template.xlsx
+++ b/05 Sent to client/A4_final_report_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kirat\Documents\Career Foundy\Python\Instacart Basket Analysis\05 Sent to client\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kirat\Documents\Career Foundry\Python\Instacart Basket Analysis\05 Sent to client\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D97109-6D6F-4333-994B-617B71A2E0DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C3205D-23C1-40B9-BE3A-7B0EEC164205}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="808" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="808" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1. Title Page" sheetId="1" r:id="rId1"/>
@@ -21,15 +21,6 @@
     <sheet name="6. Visualizations" sheetId="7" r:id="rId6"/>
     <sheet name="7. Recommendations" sheetId="9" r:id="rId7"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'5. Column derivations'!$G$35:$G$46</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'5. Column derivations'!$H$34</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'5. Column derivations'!$H$35:$H$46</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'5. Column derivations'!$I$34</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'5. Column derivations'!$I$35:$I$46</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'5. Column derivations'!$J$34</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'5. Column derivations'!$J$35:$J$46</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -49,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="174">
   <si>
     <t>Contents:</t>
   </si>
@@ -330,9 +321,6 @@
     <t>we can observe more customers are from the South</t>
   </si>
   <si>
-    <t>Middle class is the biggest category in each of the regions</t>
-  </si>
-  <si>
     <t>histogram shows that the busiest shopping times are 9am-5pm</t>
   </si>
   <si>
@@ -354,25 +342,13 @@
     <t>Regular customers order between 10 and 40 orders</t>
   </si>
   <si>
-    <t>(Read from left to right)</t>
-  </si>
-  <si>
     <t>They also want to know whether there are particular times of the day when people spend the most money, as this might inform the type of products they advertise at these times.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scatter plot of hours of the day versus mean spend of customers shows </t>
-  </si>
-  <si>
-    <t>concetration around 3pm</t>
   </si>
   <si>
     <t>The mean of money spent by customers has a higher concentration around 3pm</t>
   </si>
   <si>
     <t>Instacart has a lot of products with different price tags. Marketing and sales want to use simpler price range groupings to help direct their efforts.</t>
-  </si>
-  <si>
-    <t>Three categories were created: Low range product - price below 5, Mid range product - price between 5 and 15, High range product - price above 15</t>
   </si>
   <si>
     <t>department 4(produce) has the most number of sales</t>
@@ -399,35 +375,200 @@
     <t>Mid range product</t>
   </si>
   <si>
-    <t>The distribution of the products in terms of price is uniform throught the different regions</t>
-  </si>
-  <si>
     <t>Is there a connection between age and family status in terms of ordering habits?</t>
-  </si>
-  <si>
-    <t>The number of customers across the profiling is uniformly distributed and has similar patterns regardless the age, family status, or region</t>
   </si>
   <si>
     <t>Key Question 8</t>
   </si>
   <si>
-    <t>similar across profiling</t>
+    <t>Crosstab: Profiling vs Regions</t>
   </si>
   <si>
-    <t>Spending habbits are similar across the profiling</t>
+    <t>Crosstab: Regions vs Income level</t>
   </si>
   <si>
-    <t>Midwest, Northeast, other, South, West</t>
+    <t>Crosstab: Profiling vs price range of products</t>
   </si>
   <si>
-    <t>South region has the most number of customers</t>
+    <t>Three categories were created: Low range product - price 4 and below, Mid range product - price between 4 and 9, High range product - price above 9</t>
+  </si>
+  <si>
+    <t>Age 33-48 family with 1 dependant</t>
+  </si>
+  <si>
+    <t>Age 49-64 family with 1 dependant</t>
+  </si>
+  <si>
+    <t>Age 33-48 family with 2 or more dependants</t>
+  </si>
+  <si>
+    <t>Age 33-48 family</t>
+  </si>
+  <si>
+    <t>Age 49-64 family</t>
+  </si>
+  <si>
+    <t>Age 33-48 single</t>
+  </si>
+  <si>
+    <t>Age 49-64 single</t>
+  </si>
+  <si>
+    <t>Age 65+ family</t>
+  </si>
+  <si>
+    <t>Age 65+ single</t>
+  </si>
+  <si>
+    <t>Young family</t>
+  </si>
+  <si>
+    <t>Young single</t>
+  </si>
+  <si>
+    <t>Departments distribution</t>
+  </si>
+  <si>
+    <t>4. Produce</t>
+  </si>
+  <si>
+    <t>1. Frozen</t>
+  </si>
+  <si>
+    <t>2. Other</t>
+  </si>
+  <si>
+    <t>3. Bakery</t>
+  </si>
+  <si>
+    <t>5. Alcohol</t>
+  </si>
+  <si>
+    <t>6. International</t>
+  </si>
+  <si>
+    <t>7. Beverages</t>
+  </si>
+  <si>
+    <t>8. Pets</t>
+  </si>
+  <si>
+    <t>9. Dry goods pasta</t>
+  </si>
+  <si>
+    <t>10. Bulk</t>
+  </si>
+  <si>
+    <t>11. Personal care</t>
+  </si>
+  <si>
+    <t>12. Meat/Seafood</t>
+  </si>
+  <si>
+    <t>13. Pantry</t>
+  </si>
+  <si>
+    <t>14. Breakfast</t>
+  </si>
+  <si>
+    <t>15. Canned goods</t>
+  </si>
+  <si>
+    <t>16. Dairy/Eggs</t>
+  </si>
+  <si>
+    <t>17. Household</t>
+  </si>
+  <si>
+    <t>18. Babies</t>
+  </si>
+  <si>
+    <t>19. Snacks</t>
+  </si>
+  <si>
+    <t>20. Deli</t>
+  </si>
+  <si>
+    <t>21. Missing</t>
+  </si>
+  <si>
+    <t>Orders by Days of the Week</t>
+  </si>
+  <si>
+    <t>0. Saturday</t>
+  </si>
+  <si>
+    <t>1. Sunday</t>
+  </si>
+  <si>
+    <t>2. Monday</t>
+  </si>
+  <si>
+    <t>3. Tuesday</t>
+  </si>
+  <si>
+    <t>4. Wednesday</t>
+  </si>
+  <si>
+    <t>5. Thursday</t>
+  </si>
+  <si>
+    <t>6. Friday</t>
+  </si>
+  <si>
+    <t>Distribution of orders during hours of the day</t>
+  </si>
+  <si>
+    <t>Most of the customers are coming from Middle Income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loyal </t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Distribution of loyalty of customers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Families constitute most of customers </t>
+  </si>
+  <si>
+    <t>Midrange products 5 to 10 dollars have the most popularity</t>
+  </si>
+  <si>
+    <t>Midrange products 5 to 10 dollars have the most popularity. South region having the most customer base.</t>
+  </si>
+  <si>
+    <t>Percent of customers</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Low Range - 4 dollars or less</t>
+  </si>
+  <si>
+    <t>Mid range - between 4 and 9 dollars</t>
+  </si>
+  <si>
+    <t>High range - 10 dollars or more</t>
+  </si>
+  <si>
+    <t>Most of the products bought across profiles are under 10 dollars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Families and middle income category constitute most of customers </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -517,13 +658,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -539,7 +673,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -960,11 +1094,103 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1023,9 +1249,24 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1096,36 +1337,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Count of customers: Profiling</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> wrt Regions</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1167,11 +1378,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'5. Column derivations'!$H$9</c:f>
+              <c:f>'5. Column derivations'!$H$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Midwest</c:v>
+                  <c:v>High range product</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1188,14 +1399,14 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'5. Column derivations'!$G$10:$G$21</c:f>
+              <c:f>'5. Column derivations'!$G$35:$G$46</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Age 33-48 familty with 2 or more dependants</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Age 33-48 family with 1 dependants</c:v>
+                  <c:v>Age 33-48 family with 1 dependant</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Age 33-48 single without dependants</c:v>
@@ -1204,7 +1415,7 @@
                   <c:v>Age 49-64 familty with 2 or more dependants</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Age 49-64 family with 1 dependants</c:v>
+                  <c:v>Age 49-64 family with 1 dependant</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Age 49-64 single without dependants</c:v>
@@ -1232,52 +1443,52 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'5. Column derivations'!$H$10:$H$21</c:f>
+              <c:f>'5. Column derivations'!$H$35:$H$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>213386</c:v>
+                  <c:v>1546271</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>129510</c:v>
+                  <c:v>788580</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>123480</c:v>
+                  <c:v>771526</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>219826</c:v>
+                  <c:v>1535719</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>106021</c:v>
+                  <c:v>763520</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>121265</c:v>
+                  <c:v>786688</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>356998</c:v>
+                  <c:v>2465441</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>113298</c:v>
+                  <c:v>812620</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80279</c:v>
+                  <c:v>522606</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>163592</c:v>
+                  <c:v>1069291</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>89494</c:v>
+                  <c:v>594752</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>100269</c:v>
+                  <c:v>722476</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A78D-4460-897A-4F305B922E37}"/>
+              <c16:uniqueId val="{00000000-2023-41CC-8ABF-01F22DF099B1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1286,11 +1497,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'5. Column derivations'!$I$9</c:f>
+              <c:f>'5. Column derivations'!$I$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Northeast</c:v>
+                  <c:v>Low range product</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1307,14 +1518,14 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'5. Column derivations'!$G$10:$G$21</c:f>
+              <c:f>'5. Column derivations'!$G$35:$G$46</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Age 33-48 familty with 2 or more dependants</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Age 33-48 family with 1 dependants</c:v>
+                  <c:v>Age 33-48 family with 1 dependant</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Age 33-48 single without dependants</c:v>
@@ -1323,7 +1534,7 @@
                   <c:v>Age 49-64 familty with 2 or more dependants</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Age 49-64 family with 1 dependants</c:v>
+                  <c:v>Age 49-64 family with 1 dependant</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Age 49-64 single without dependants</c:v>
@@ -1351,52 +1562,52 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'5. Column derivations'!$I$10:$I$21</c:f>
+              <c:f>'5. Column derivations'!$I$35:$I$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>146412</c:v>
+                  <c:v>949307</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>84627</c:v>
+                  <c:v>481002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>74008</c:v>
+                  <c:v>475155</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>163451</c:v>
+                  <c:v>947598</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>76184</c:v>
+                  <c:v>471613</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>71970</c:v>
+                  <c:v>483885</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>246170</c:v>
+                  <c:v>1520420</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>98406</c:v>
+                  <c:v>498331</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>61408</c:v>
+                  <c:v>320881</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>105770</c:v>
+                  <c:v>662832</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45810</c:v>
+                  <c:v>363479</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>78634</c:v>
+                  <c:v>447308</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A78D-4460-897A-4F305B922E37}"/>
+              <c16:uniqueId val="{00000001-2023-41CC-8ABF-01F22DF099B1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1405,11 +1616,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'5. Column derivations'!$J$9</c:f>
+              <c:f>'5. Column derivations'!$J$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Other</c:v>
+                  <c:v>Mid range product</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1426,14 +1637,14 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'5. Column derivations'!$G$10:$G$21</c:f>
+              <c:f>'5. Column derivations'!$G$35:$G$46</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Age 33-48 familty with 2 or more dependants</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Age 33-48 family with 1 dependants</c:v>
+                  <c:v>Age 33-48 family with 1 dependant</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Age 33-48 single without dependants</c:v>
@@ -1442,7 +1653,7 @@
                   <c:v>Age 49-64 familty with 2 or more dependants</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Age 49-64 family with 1 dependants</c:v>
+                  <c:v>Age 49-64 family with 1 dependant</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Age 49-64 single without dependants</c:v>
@@ -1470,290 +1681,52 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'5. Column derivations'!$J$10:$J$21</c:f>
+              <c:f>'5. Column derivations'!$J$35:$J$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>20682</c:v>
+                  <c:v>1544426</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7683</c:v>
+                  <c:v>790182</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8365</c:v>
+                  <c:v>769041</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18187</c:v>
+                  <c:v>1540852</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10173</c:v>
+                  <c:v>764431</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6828</c:v>
+                  <c:v>792749</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29713</c:v>
+                  <c:v>2468571</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9552</c:v>
+                  <c:v>808940</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5453</c:v>
+                  <c:v>523893</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13213</c:v>
+                  <c:v>1077317</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8148</c:v>
+                  <c:v>592242</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6267</c:v>
+                  <c:v>728030</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A78D-4460-897A-4F305B922E37}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'5. Column derivations'!$K$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>South</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'5. Column derivations'!$G$10:$G$21</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Age 33-48 familty with 2 or more dependants</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Age 33-48 family with 1 dependants</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Age 33-48 single without dependants</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Age 49-64 familty with 2 or more dependants</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Age 49-64 family with 1 dependants</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Age 49-64 single without dependants</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Age 65+ family with dependants</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Age 65+ single without dependants</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Young family with 1 dependants</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Young family with 2 or more dependants</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Young single with dependants</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Young single without dependants</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'5. Column derivations'!$K$10:$K$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>317211</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>159659</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>171104</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>327388</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>161784</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>162603</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>517392</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>164539</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>113454</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>234342</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>142878</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>149648</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-A78D-4460-897A-4F305B922E37}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'5. Column derivations'!$L$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>West</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'5. Column derivations'!$G$10:$G$21</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Age 33-48 familty with 2 or more dependants</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Age 33-48 family with 1 dependants</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Age 33-48 single without dependants</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Age 49-64 familty with 2 or more dependants</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Age 49-64 family with 1 dependants</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Age 49-64 single without dependants</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Age 65+ family with dependants</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Age 65+ single without dependants</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Young family with 1 dependants</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Young family with 2 or more dependants</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Young single with dependants</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Young single without dependants</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'5. Column derivations'!$L$10:$L$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>239968</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>129649</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>118987</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>253964</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>127509</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>128539</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>399253</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>126038</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>87245</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>164688</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>102121</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>104279</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-A78D-4460-897A-4F305B922E37}"/>
+              <c16:uniqueId val="{00000002-2023-41CC-8ABF-01F22DF099B1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1767,11 +1740,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="188849791"/>
-        <c:axId val="188851871"/>
+        <c:axId val="263482815"/>
+        <c:axId val="263481983"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="188849791"/>
+        <c:axId val="263482815"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1814,7 +1787,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188851871"/>
+        <c:crossAx val="263481983"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1822,7 +1795,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="188851871"/>
+        <c:axId val="263481983"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1873,7 +1846,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188849791"/>
+        <c:crossAx val="263482815"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1995,11 +1968,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Income</a:t>
+              <a:t>Profiling</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> vs Regions</a:t>
+              <a:t> per Region</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -2046,11 +2019,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'5. Column derivations'!$H$24</c:f>
+              <c:f>'5. Column derivations'!$H$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Higher income</c:v>
+                  <c:v>Midwest</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2067,54 +2040,96 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'5. Column derivations'!$G$25:$G$29</c:f>
+              <c:f>'5. Column derivations'!$G$11:$G$22</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>Midwest</c:v>
+                  <c:v>Age 33-48 familty with 2 or more dependants</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Northeast</c:v>
+                  <c:v>Age 33-48 family with 1 dependants</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Other</c:v>
+                  <c:v>Age 33-48 single without dependants</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>South</c:v>
+                  <c:v>Age 49-64 familty with 2 or more dependants</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>West</c:v>
+                  <c:v>Age 49-64 family with 1 dependants</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Age 49-64 single without dependants</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Age 65+ family with dependants</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Age 65+ single without dependants</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Young family with 1 dependants</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Young family with 2 or more dependants</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Young single with dependants</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Young single without dependants</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'5. Column derivations'!$H$25:$H$29</c:f>
+              <c:f>'5. Column derivations'!$H$11:$H$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>304643</c:v>
+                  <c:v>213386</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>210484</c:v>
+                  <c:v>129510</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25234</c:v>
+                  <c:v>123480</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>436688</c:v>
+                  <c:v>219826</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>341321</c:v>
+                  <c:v>106021</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>121265</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>356998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>113298</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80279</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>163592</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>89494</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100269</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8AA0-479D-A476-EEAC4C7100FD}"/>
+              <c16:uniqueId val="{00000000-ABDE-4527-BF9C-DA8AD0830699}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2123,11 +2138,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'5. Column derivations'!$I$24</c:f>
+              <c:f>'5. Column derivations'!$I$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Lower income</c:v>
+                  <c:v>Northeast</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2144,54 +2159,96 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'5. Column derivations'!$G$25:$G$29</c:f>
+              <c:f>'5. Column derivations'!$G$11:$G$22</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>Midwest</c:v>
+                  <c:v>Age 33-48 familty with 2 or more dependants</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Northeast</c:v>
+                  <c:v>Age 33-48 family with 1 dependants</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Other</c:v>
+                  <c:v>Age 33-48 single without dependants</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>South</c:v>
+                  <c:v>Age 49-64 familty with 2 or more dependants</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>West</c:v>
+                  <c:v>Age 49-64 family with 1 dependants</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Age 49-64 single without dependants</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Age 65+ family with dependants</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Age 65+ single without dependants</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Young family with 1 dependants</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Young family with 2 or more dependants</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Young single with dependants</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Young single without dependants</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'5. Column derivations'!$I$25:$I$29</c:f>
+              <c:f>'5. Column derivations'!$I$11:$I$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>284031</c:v>
+                  <c:v>146412</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>185995</c:v>
+                  <c:v>84627</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21829</c:v>
+                  <c:v>74008</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>431158</c:v>
+                  <c:v>163451</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>296912</c:v>
+                  <c:v>76184</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>71970</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>246170</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>98406</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>61408</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>105770</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45810</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>78634</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8AA0-479D-A476-EEAC4C7100FD}"/>
+              <c16:uniqueId val="{00000001-ABDE-4527-BF9C-DA8AD0830699}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2200,11 +2257,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'5. Column derivations'!$J$24</c:f>
+              <c:f>'5. Column derivations'!$J$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Middle income</c:v>
+                  <c:v>Other</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2221,54 +2278,334 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'5. Column derivations'!$G$25:$G$29</c:f>
+              <c:f>'5. Column derivations'!$G$11:$G$22</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>Midwest</c:v>
+                  <c:v>Age 33-48 familty with 2 or more dependants</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Northeast</c:v>
+                  <c:v>Age 33-48 family with 1 dependants</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Other</c:v>
+                  <c:v>Age 33-48 single without dependants</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>South</c:v>
+                  <c:v>Age 49-64 familty with 2 or more dependants</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>West</c:v>
+                  <c:v>Age 49-64 family with 1 dependants</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Age 49-64 single without dependants</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Age 65+ family with dependants</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Age 65+ single without dependants</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Young family with 1 dependants</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Young family with 2 or more dependants</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Young single with dependants</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Young single without dependants</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'5. Column derivations'!$J$25:$J$29</c:f>
+              <c:f>'5. Column derivations'!$J$11:$J$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1228744</c:v>
+                  <c:v>20682</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>856371</c:v>
+                  <c:v>7683</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>97201</c:v>
+                  <c:v>8365</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1754156</c:v>
+                  <c:v>18187</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1344007</c:v>
+                  <c:v>10173</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6828</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29713</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9552</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5453</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13213</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8148</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6267</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8AA0-479D-A476-EEAC4C7100FD}"/>
+              <c16:uniqueId val="{00000002-ABDE-4527-BF9C-DA8AD0830699}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'5. Column derivations'!$K$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>South</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'5. Column derivations'!$G$11:$G$22</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Age 33-48 familty with 2 or more dependants</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Age 33-48 family with 1 dependants</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Age 33-48 single without dependants</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Age 49-64 familty with 2 or more dependants</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Age 49-64 family with 1 dependants</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Age 49-64 single without dependants</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Age 65+ family with dependants</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Age 65+ single without dependants</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Young family with 1 dependants</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Young family with 2 or more dependants</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Young single with dependants</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Young single without dependants</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'5. Column derivations'!$K$11:$K$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>317211</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>159659</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>171104</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>327388</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>161784</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>162603</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>517392</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>164539</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>113454</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>234342</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>142878</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>149648</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-ABDE-4527-BF9C-DA8AD0830699}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'5. Column derivations'!$L$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>West</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'5. Column derivations'!$G$11:$G$22</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Age 33-48 familty with 2 or more dependants</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Age 33-48 family with 1 dependants</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Age 33-48 single without dependants</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Age 49-64 familty with 2 or more dependants</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Age 49-64 family with 1 dependants</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Age 49-64 single without dependants</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Age 65+ family with dependants</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Age 65+ single without dependants</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Young family with 1 dependants</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Young family with 2 or more dependants</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Young single with dependants</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Young single without dependants</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'5. Column derivations'!$L$11:$L$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>239968</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>129649</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>118987</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>253964</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>127509</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128539</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>399253</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>126038</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>87245</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>164688</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>102121</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>104279</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-ABDE-4527-BF9C-DA8AD0830699}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2282,11 +2619,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="308871743"/>
-        <c:axId val="308872575"/>
+        <c:axId val="95867408"/>
+        <c:axId val="95864912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="308871743"/>
+        <c:axId val="95867408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2329,7 +2666,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="308872575"/>
+        <c:crossAx val="95864912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2337,7 +2674,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="308872575"/>
+        <c:axId val="95864912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2388,7 +2725,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="308871743"/>
+        <c:crossAx val="95867408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2509,14 +2846,9 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Price range distribution wrt Regions</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>Regions vs Income Level</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US">
-              <a:effectLst/>
-            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2554,18 +2886,18 @@
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="percentStacked"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'5. Column derivations'!$O$9</c:f>
+              <c:f>'5. Column derivations'!$H$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>High range product</c:v>
+                  <c:v>Higher income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2582,9 +2914,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'5. Column derivations'!$N$10:$N$14</c:f>
+              <c:f>('5. Column derivations'!$G$26:$G$27,'5. Column derivations'!$G$29:$G$30)</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Midwest</c:v>
                 </c:pt>
@@ -2592,12 +2924,9 @@
                   <c:v>Northeast</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Other</c:v>
+                  <c:v>South</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>South</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>West</c:v>
                 </c:pt>
               </c:strCache>
@@ -2605,31 +2934,28 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'5. Column derivations'!$O$10:$O$14</c:f>
+              <c:f>('5. Column derivations'!$H$26:$H$27,'5. Column derivations'!$H$29:$H$30)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>22956</c:v>
+                  <c:v>304643</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16182</c:v>
+                  <c:v>210484</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1822</c:v>
+                  <c:v>436688</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33073</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25505</c:v>
+                  <c:v>341321</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2E0C-43B3-BB38-6B2BBC7D3235}"/>
+              <c16:uniqueId val="{00000000-99DD-4688-BD2B-39FAB0EBF770}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2638,11 +2964,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'5. Column derivations'!$P$9</c:f>
+              <c:f>'5. Column derivations'!$I$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Low range product</c:v>
+                  <c:v>Lower income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2659,9 +2985,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'5. Column derivations'!$N$10:$N$14</c:f>
+              <c:f>('5. Column derivations'!$G$26:$G$27,'5. Column derivations'!$G$29:$G$30)</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Midwest</c:v>
                 </c:pt>
@@ -2669,12 +2995,9 @@
                   <c:v>Northeast</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Other</c:v>
+                  <c:v>South</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>South</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>West</c:v>
                 </c:pt>
               </c:strCache>
@@ -2682,31 +3005,28 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'5. Column derivations'!$P$10:$P$14</c:f>
+              <c:f>('5. Column derivations'!$I$26:$I$27,'5. Column derivations'!$I$29:$I$30)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>567978</c:v>
+                  <c:v>284031</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>393174</c:v>
+                  <c:v>185995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45000</c:v>
+                  <c:v>431158</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>818955</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>617777</c:v>
+                  <c:v>296912</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2E0C-43B3-BB38-6B2BBC7D3235}"/>
+              <c16:uniqueId val="{00000001-99DD-4688-BD2B-39FAB0EBF770}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2715,11 +3035,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'5. Column derivations'!$Q$9</c:f>
+              <c:f>'5. Column derivations'!$J$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Mid range product</c:v>
+                  <c:v>Middle income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2736,9 +3056,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'5. Column derivations'!$N$10:$N$14</c:f>
+              <c:f>('5. Column derivations'!$G$26:$G$27,'5. Column derivations'!$G$29:$G$30)</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Midwest</c:v>
                 </c:pt>
@@ -2746,12 +3066,9 @@
                   <c:v>Northeast</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Other</c:v>
+                  <c:v>South</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>South</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>West</c:v>
                 </c:pt>
               </c:strCache>
@@ -2759,31 +3076,28 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'5. Column derivations'!$Q$10:$Q$14</c:f>
+              <c:f>('5. Column derivations'!$J$26:$J$27,'5. Column derivations'!$J$29:$J$30)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1226484</c:v>
+                  <c:v>1228744</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>843494</c:v>
+                  <c:v>856371</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>97442</c:v>
+                  <c:v>1754156</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1769974</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1338958</c:v>
+                  <c:v>1344007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2E0C-43B3-BB38-6B2BBC7D3235}"/>
+              <c16:uniqueId val="{00000002-99DD-4688-BD2B-39FAB0EBF770}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2796,12 +3110,12 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:overlap val="100"/>
-        <c:axId val="188707823"/>
-        <c:axId val="188717391"/>
+        <c:overlap val="-27"/>
+        <c:axId val="141189343"/>
+        <c:axId val="141185599"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="188707823"/>
+        <c:axId val="141189343"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2844,7 +3158,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188717391"/>
+        <c:crossAx val="141185599"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2852,7 +3166,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="188717391"/>
+        <c:axId val="141185599"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2872,7 +3186,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2903,7 +3217,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188707823"/>
+        <c:crossAx val="141189343"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3025,11 +3339,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Uniform distribution</a:t>
+              <a:t>Distribution of Customers</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> across the profiling</a:t>
+              <a:t> per region</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -3069,22 +3383,11 @@
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="percentStacked"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'5. Column derivations'!$H$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Midwest</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3097,572 +3400,48 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'5. Column derivations'!$G$10:$G$21</c:f>
+              <c:f>('5. Column derivations'!$H$58:$I$58,'5. Column derivations'!$K$58:$L$58)</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Age 33-48 familty with 2 or more dependants</c:v>
+                  <c:v>Midwest</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Age 33-48 family with 1 dependants</c:v>
+                  <c:v>Northeast</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Age 33-48 single without dependants</c:v>
+                  <c:v>South</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Age 49-64 familty with 2 or more dependants</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Age 49-64 family with 1 dependants</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Age 49-64 single without dependants</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Age 65+ family with dependants</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Age 65+ single without dependants</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Young family with 1 dependants</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Young family with 2 or more dependants</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Young single with dependants</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Young single without dependants</c:v>
+                  <c:v>West</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'5. Column derivations'!$H$10:$H$21</c:f>
+              <c:f>('5. Column derivations'!$H$72:$I$72,'5. Column derivations'!$K$72:$L$72)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>213386</c:v>
+                  <c:v>0.23244283566707516</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>129510</c:v>
+                  <c:v>0.16023611885955522</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>123480</c:v>
+                  <c:v>0.33534694825557049</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>219826</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>106021</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>121265</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>356998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>113298</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>80279</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>163592</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>89494</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>100269</c:v>
+                  <c:v>0.2535231226788241</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-336A-41D5-BC99-D70CEE55281B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'5. Column derivations'!$I$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Northeast</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'5. Column derivations'!$G$10:$G$21</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Age 33-48 familty with 2 or more dependants</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Age 33-48 family with 1 dependants</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Age 33-48 single without dependants</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Age 49-64 familty with 2 or more dependants</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Age 49-64 family with 1 dependants</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Age 49-64 single without dependants</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Age 65+ family with dependants</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Age 65+ single without dependants</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Young family with 1 dependants</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Young family with 2 or more dependants</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Young single with dependants</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Young single without dependants</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'5. Column derivations'!$I$10:$I$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>146412</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>84627</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>74008</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>163451</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>76184</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>71970</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>246170</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>98406</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>61408</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>105770</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>45810</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>78634</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-336A-41D5-BC99-D70CEE55281B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'5. Column derivations'!$J$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Other</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'5. Column derivations'!$G$10:$G$21</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Age 33-48 familty with 2 or more dependants</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Age 33-48 family with 1 dependants</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Age 33-48 single without dependants</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Age 49-64 familty with 2 or more dependants</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Age 49-64 family with 1 dependants</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Age 49-64 single without dependants</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Age 65+ family with dependants</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Age 65+ single without dependants</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Young family with 1 dependants</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Young family with 2 or more dependants</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Young single with dependants</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Young single without dependants</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'5. Column derivations'!$J$10:$J$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>20682</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7683</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8365</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18187</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10173</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6828</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>29713</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9552</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5453</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>13213</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8148</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6267</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-336A-41D5-BC99-D70CEE55281B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'5. Column derivations'!$K$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>South</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'5. Column derivations'!$G$10:$G$21</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Age 33-48 familty with 2 or more dependants</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Age 33-48 family with 1 dependants</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Age 33-48 single without dependants</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Age 49-64 familty with 2 or more dependants</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Age 49-64 family with 1 dependants</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Age 49-64 single without dependants</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Age 65+ family with dependants</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Age 65+ single without dependants</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Young family with 1 dependants</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Young family with 2 or more dependants</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Young single with dependants</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Young single without dependants</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'5. Column derivations'!$K$10:$K$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>317211</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>159659</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>171104</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>327388</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>161784</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>162603</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>517392</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>164539</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>113454</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>234342</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>142878</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>149648</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-336A-41D5-BC99-D70CEE55281B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'5. Column derivations'!$L$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>West</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'5. Column derivations'!$G$10:$G$21</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Age 33-48 familty with 2 or more dependants</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Age 33-48 family with 1 dependants</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Age 33-48 single without dependants</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Age 49-64 familty with 2 or more dependants</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Age 49-64 family with 1 dependants</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Age 49-64 single without dependants</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Age 65+ family with dependants</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Age 65+ single without dependants</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Young family with 1 dependants</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Young family with 2 or more dependants</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Young single with dependants</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Young single without dependants</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'5. Column derivations'!$L$10:$L$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>239968</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>129649</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>118987</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>253964</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>127509</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>128539</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>399253</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>126038</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>87245</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>164688</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>102121</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>104279</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-336A-41D5-BC99-D70CEE55281B}"/>
+              <c16:uniqueId val="{00000000-841E-4FA2-9D80-D85FB1974F8C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3674,13 +3453,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="385360335"/>
-        <c:axId val="385347023"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1867662767"/>
+        <c:axId val="1867663183"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="385360335"/>
+        <c:axId val="1867662767"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3723,7 +3502,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="385347023"/>
+        <c:crossAx val="1867663183"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3731,7 +3510,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="385347023"/>
+        <c:axId val="1867663183"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3751,7 +3530,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Percent</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3782,7 +3616,810 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="385360335"/>
+        <c:crossAx val="1867662767"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Age</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> and Family Status</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'5. Column derivations'!$G$75:$G$82</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Age 33-48 family</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Age 33-48 single</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Age 49-64 family</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Age 49-64 single</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Age 65+ family</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Age 65+ single</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Young family</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Young single</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'5. Column derivations'!$H$75:$H$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.18529593002688144</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3429893228784978E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18730391746839081</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.2823787974943382E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19818017505046187</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.5462053257966016E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1813449269668109</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.6159316025760561E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0606-49F4-9C24-582FD5AC2317}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="134371104"/>
+        <c:axId val="134371520"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="134371104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="134371520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="134371520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="134371104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Distribution</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of price range per region</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'5. Column derivations'!$H$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>High range product</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>('5. Column derivations'!$G$51:$G$52,'5. Column derivations'!$G$54:$G$55)</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Midwest</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Northeast</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>South</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>West</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('5. Column derivations'!$H$51:$H$52,'5. Column derivations'!$H$54:$H$55)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>22956</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16182</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33073</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25505</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-573A-47BF-AD12-FF4ECB6591F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'5. Column derivations'!$I$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Low range product</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>('5. Column derivations'!$G$51:$G$52,'5. Column derivations'!$G$54:$G$55)</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Midwest</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Northeast</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>South</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>West</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('5. Column derivations'!$I$51:$I$52,'5. Column derivations'!$I$54:$I$55)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>567978</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>393174</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>818955</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>617777</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-573A-47BF-AD12-FF4ECB6591F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'5. Column derivations'!$J$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mid range product</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>('5. Column derivations'!$G$51:$G$52,'5. Column derivations'!$G$54:$G$55)</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Midwest</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Northeast</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>South</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>West</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('5. Column derivations'!$J$51:$J$52,'5. Column derivations'!$J$54:$J$55)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1226484</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>843494</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1769974</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1338958</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-573A-47BF-AD12-FF4ECB6591F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="397997487"/>
+        <c:axId val="397999151"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="397997487"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="397999151"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="397999151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="397997487"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3869,7 +4506,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3904,11 +4541,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Spending</a:t>
+              <a:t>Product</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Habbits</a:t>
+              <a:t> Price Range across profiling</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -3948,7 +4585,7 @@
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="percentStacked"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -3983,7 +4620,7 @@
                   <c:v>Age 33-48 familty with 2 or more dependants</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Age 33-48 family with 1 dependants</c:v>
+                  <c:v>Age 33-48 family with 1 dependant</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Age 33-48 single without dependants</c:v>
@@ -3992,7 +4629,7 @@
                   <c:v>Age 49-64 familty with 2 or more dependants</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Age 49-64 family with 1 dependants</c:v>
+                  <c:v>Age 49-64 family with 1 dependant</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Age 49-64 single without dependants</c:v>
@@ -4025,47 +4662,47 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>11971</c:v>
+                  <c:v>1546271</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6842</c:v>
+                  <c:v>788580</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6026</c:v>
+                  <c:v>771526</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13021</c:v>
+                  <c:v>1535719</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5787</c:v>
+                  <c:v>763520</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5979</c:v>
+                  <c:v>786688</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20354</c:v>
+                  <c:v>2465441</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6755</c:v>
+                  <c:v>812620</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4299</c:v>
+                  <c:v>522606</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8523</c:v>
+                  <c:v>1069291</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4715</c:v>
+                  <c:v>594752</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5266</c:v>
+                  <c:v>722476</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CB5A-4E93-9E63-EE8F61E60C42}"/>
+              <c16:uniqueId val="{00000000-2D7A-4728-B820-882DAF375BA4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4102,7 +4739,7 @@
                   <c:v>Age 33-48 familty with 2 or more dependants</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Age 33-48 family with 1 dependants</c:v>
+                  <c:v>Age 33-48 family with 1 dependant</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Age 33-48 single without dependants</c:v>
@@ -4111,7 +4748,7 @@
                   <c:v>Age 49-64 familty with 2 or more dependants</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Age 49-64 family with 1 dependants</c:v>
+                  <c:v>Age 49-64 family with 1 dependant</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Age 49-64 single without dependants</c:v>
@@ -4144,47 +4781,47 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>292830</c:v>
+                  <c:v>949307</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>159459</c:v>
+                  <c:v>481002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>155621</c:v>
+                  <c:v>475155</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>308482</c:v>
+                  <c:v>947598</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>152706</c:v>
+                  <c:v>471613</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>152379</c:v>
+                  <c:v>483885</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>482525</c:v>
+                  <c:v>1520420</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>159290</c:v>
+                  <c:v>498331</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>107804</c:v>
+                  <c:v>320881</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>212822</c:v>
+                  <c:v>662832</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>121271</c:v>
+                  <c:v>363479</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>137695</c:v>
+                  <c:v>447308</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CB5A-4E93-9E63-EE8F61E60C42}"/>
+              <c16:uniqueId val="{00000001-2D7A-4728-B820-882DAF375BA4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4221,7 +4858,7 @@
                   <c:v>Age 33-48 familty with 2 or more dependants</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Age 33-48 family with 1 dependants</c:v>
+                  <c:v>Age 33-48 family with 1 dependant</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Age 33-48 single without dependants</c:v>
@@ -4230,7 +4867,7 @@
                   <c:v>Age 49-64 familty with 2 or more dependants</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Age 49-64 family with 1 dependants</c:v>
+                  <c:v>Age 49-64 family with 1 dependant</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Age 49-64 single without dependants</c:v>
@@ -4263,47 +4900,47 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>632858</c:v>
+                  <c:v>1544426</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>344827</c:v>
+                  <c:v>790182</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>334297</c:v>
+                  <c:v>769041</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>661313</c:v>
+                  <c:v>1540852</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>323178</c:v>
+                  <c:v>764431</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>332847</c:v>
+                  <c:v>792749</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1046647</c:v>
+                  <c:v>2468571</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>345788</c:v>
+                  <c:v>808940</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>235736</c:v>
+                  <c:v>523893</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>460260</c:v>
+                  <c:v>1077317</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>262465</c:v>
+                  <c:v>592242</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>296136</c:v>
+                  <c:v>728030</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-CB5A-4E93-9E63-EE8F61E60C42}"/>
+              <c16:uniqueId val="{00000002-2D7A-4728-B820-882DAF375BA4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4316,12 +4953,12 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:overlap val="100"/>
-        <c:axId val="313783855"/>
-        <c:axId val="313785935"/>
+        <c:overlap val="-27"/>
+        <c:axId val="263482815"/>
+        <c:axId val="263481983"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="313783855"/>
+        <c:axId val="263482815"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4364,7 +5001,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="313785935"/>
+        <c:crossAx val="263481983"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4372,7 +5009,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="313785935"/>
+        <c:axId val="263481983"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4392,7 +5029,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4423,7 +5060,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="313783855"/>
+        <c:crossAx val="263482815"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4671,6 +5308,86 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6220,7 +6937,7 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6424,23 +7141,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -6545,8 +7261,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6678,20 +7394,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -7227,6 +7942,1012 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/diagrams/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <dgm:colorsDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2">
   <dgm:title val=""/>
@@ -10380,7 +12101,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t> 3421083 rows x 7 columns</a:t>
+            <a:t> 3,421,083 rows x 7 columns</a:t>
           </a:r>
         </a:p>
       </dgm:t>
@@ -10462,7 +12183,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>Total: 3421083 rows x 6 columns</a:t>
+            <a:t>Total: 3,421,083 rows x 6 columns</a:t>
           </a:r>
         </a:p>
       </dgm:t>
@@ -10963,7 +12684,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>: 32434489 rows x 4 columns </a:t>
+            <a:t>: 32,434,489 rows x 4 columns </a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1900">
             <a:solidFill>
@@ -11058,7 +12779,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>Total: 32434489 rows x 11 columns  </a:t>
+            <a:t>Total: 32,434,489 rows x 11 columns  </a:t>
           </a:r>
         </a:p>
       </dgm:t>
@@ -11700,7 +13421,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t> 3421083 rows x 7 columns</a:t>
+            <a:t> 3,421,083 rows x 7 columns</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
@@ -11850,7 +13571,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>Total: 3421083 rows x 6 columns</a:t>
+            <a:t>Total: 3,421,083 rows x 6 columns</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
@@ -12457,7 +14178,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>: 32434489 rows x 4 columns </a:t>
+            <a:t>: 32,434,489 rows x 4 columns </a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1900" kern="1200">
             <a:solidFill>
@@ -12611,7 +14332,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>Total: 32434489 rows x 11 columns  </a:t>
+            <a:t>Total: 32,434,489 rows x 11 columns  </a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
@@ -19923,6 +21644,27 @@
               </a:spcAft>
               <a:buChar char="••"/>
             </a:pPr>
+            <a:endParaRPr lang="en-US" sz="1200" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="533400">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="15000"/>
+              </a:spcAft>
+              <a:buChar char="••"/>
+            </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200" kern="1200">
                 <a:solidFill>
@@ -19941,7 +21683,7 @@
                   </a:schemeClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>: 32434489 rows x 11 columns</a:t>
+              <a:t>: 32,434,489 rows x 11 columns</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1200" kern="1200">
               <a:solidFill>
@@ -20142,7 +21884,7 @@
                   </a:schemeClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>: 32404859 rows x 15 columns</a:t>
+              <a:t>: 32,404,859 rows x 15 columns</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1200" kern="1200">
               <a:solidFill>
@@ -20324,7 +22066,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1400" kern="1200"/>
-              <a:t> 7819460 rows x 34 columns</a:t>
+              <a:t> 7,819,460 rows x 34 columns</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1200" kern="1200">
               <a:solidFill>
@@ -21559,6 +23301,42 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1200150</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1047750</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B9C0F41-8FC1-46DF-918D-CDD5ACB90AFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -21818,138 +23596,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>95249</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F27E376-57D4-4BF4-AAD7-FA99E052119D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>104774</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{057BF631-96DD-4672-AD12-D44A51C8137B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>409061</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>66332</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9FADFD8-9C26-433E-A022-470AC229BC62}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8010525" y="9086850"/>
-          <a:ext cx="4114286" cy="2742857"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>418586</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>66332</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>437636</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>123482</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -21965,14 +23623,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8020050" y="5467350"/>
+          <a:off x="800100" y="6791325"/>
           <a:ext cx="4114286" cy="2742857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -21984,16 +23642,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>513836</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>28232</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523361</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>171107</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -22009,14 +23667,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="276225" y="10677525"/>
+          <a:off x="885825" y="10639425"/>
           <a:ext cx="4114286" cy="2742857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -22028,16 +23686,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>513836</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>413220</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -22052,16 +23710,15 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect b="8679"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8115300" y="13211175"/>
-          <a:ext cx="4114286" cy="2781300"/>
+          <a:off x="866775" y="22964776"/>
+          <a:ext cx="4023195" cy="2305050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -22070,25 +23727,63 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="Chart 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54A5B852-8521-4C13-B194-EEE0164759C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>513836</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>28232</xdr:rowOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>37757</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11">
+        <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0E3FE8D-88CE-4B0E-A675-7C7A7E145F19}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CF99D4E-061A-4DA3-BA0D-0B6204D932C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22097,14 +23792,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="876300" y="14658975"/>
+          <a:off x="876300" y="14849475"/>
           <a:ext cx="4114286" cy="2742857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -22116,23 +23811,99 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="14" name="Chart 13">
+        <xdr:cNvPr id="19" name="Chart 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B2FA4C8-18FB-42EE-8327-66FF28E533D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89900B52-CEA2-443E-87C7-EFA328B205D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="20" name="Chart 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C60D1423-8808-414E-9013-61265D109F0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="21" name="Chart 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FD7260B-DEE9-4C34-80A4-1B8FE2A5C0D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22154,23 +23925,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="15" name="Chart 14">
+        <xdr:cNvPr id="22" name="Chart 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD21A685-2BB3-4FE4-B098-C2D8231DD09B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{664A5AF4-681E-4B91-AB33-35FBE24EE582}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22192,23 +23963,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85723</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>409574</xdr:colOff>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="16" name="Chart 15">
+        <xdr:cNvPr id="23" name="Chart 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{560019BB-C36B-4D5E-AB26-73465EE04CEC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89D06EC8-A85E-42A4-AE8A-2E21EC542EB1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22226,50 +23997,6 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>513836</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>28232</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FB485E2-2B98-4951-9638-69A851D67DD8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12915900" y="13392150"/>
-          <a:ext cx="4114286" cy="2742857"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -22847,7 +24574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B13:B19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -22908,7 +24635,7 @@
   <dimension ref="Y1:Y6"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+      <selection activeCell="Z28" sqref="Z28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
@@ -23240,10 +24967,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B1:Q46"/>
+  <dimension ref="B1:O82"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34:J46"/>
+    <sheetView showGridLines="0" topLeftCell="B21" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -23253,15 +24980,16 @@
     <col min="3" max="3" width="21.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
     <col min="5" max="5" width="19.21875" customWidth="1"/>
+    <col min="7" max="7" width="44.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17">
+    <row r="1" spans="2:15">
       <c r="K1" s="23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:17" ht="15" thickBot="1"/>
-    <row r="6" spans="2:17" ht="21.45" customHeight="1" thickTop="1" thickBot="1">
+    <row r="5" spans="2:15" ht="15" thickBot="1"/>
+    <row r="6" spans="2:15" ht="21.45" customHeight="1" thickTop="1" thickBot="1">
       <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
@@ -23275,7 +25003,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:17" ht="15" thickTop="1">
+    <row r="7" spans="2:15" ht="15" thickTop="1">
       <c r="B7" s="18" t="s">
         <v>69</v>
       </c>
@@ -23287,7 +25015,7 @@
       </c>
       <c r="E7" s="25"/>
     </row>
-    <row r="8" spans="2:17" ht="15" thickBot="1">
+    <row r="8" spans="2:15" ht="15" thickBot="1">
       <c r="B8" s="18"/>
       <c r="C8" s="13" t="s">
         <v>72</v>
@@ -23297,7 +25025,7 @@
       </c>
       <c r="E8" s="14"/>
     </row>
-    <row r="9" spans="2:17" ht="15" thickBot="1">
+    <row r="9" spans="2:15" ht="15" thickBot="1">
       <c r="B9" s="18"/>
       <c r="C9" s="13" t="s">
         <v>74</v>
@@ -23306,38 +25034,12 @@
         <v>75</v>
       </c>
       <c r="E9" s="14"/>
-      <c r="G9" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" t="s">
-        <v>49</v>
-      </c>
-      <c r="J9" t="s">
-        <v>50</v>
-      </c>
-      <c r="K9" t="s">
-        <v>51</v>
-      </c>
-      <c r="L9" t="s">
-        <v>52</v>
-      </c>
-      <c r="N9" t="s">
-        <v>65</v>
-      </c>
-      <c r="O9" t="s">
+      <c r="G9" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="P9" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>115</v>
-      </c>
+      <c r="O9" s="39"/>
     </row>
-    <row r="10" spans="2:17">
+    <row r="10" spans="2:15">
       <c r="B10" s="18"/>
       <c r="C10" s="13" t="s">
         <v>76</v>
@@ -23346,38 +25048,26 @@
         <v>77</v>
       </c>
       <c r="E10" s="14"/>
-      <c r="G10" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10">
-        <v>213386</v>
-      </c>
-      <c r="I10">
-        <v>146412</v>
-      </c>
-      <c r="J10">
-        <v>20682</v>
-      </c>
-      <c r="K10">
-        <v>317211</v>
-      </c>
-      <c r="L10">
-        <v>239968</v>
-      </c>
-      <c r="N10" t="s">
+      <c r="G10" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" t="s">
         <v>48</v>
       </c>
-      <c r="O10">
-        <v>22956</v>
-      </c>
-      <c r="P10">
-        <v>567978</v>
-      </c>
-      <c r="Q10">
-        <v>1226484</v>
+      <c r="I10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" t="s">
+        <v>51</v>
+      </c>
+      <c r="L10" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="11" spans="2:17">
+    <row r="11" spans="2:15">
       <c r="B11" s="18"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13" t="s">
@@ -23385,37 +25075,25 @@
       </c>
       <c r="E11" s="14"/>
       <c r="G11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H11">
-        <v>129510</v>
+        <v>213386</v>
       </c>
       <c r="I11">
-        <v>84627</v>
+        <v>146412</v>
       </c>
       <c r="J11">
-        <v>7683</v>
+        <v>20682</v>
       </c>
       <c r="K11">
-        <v>159659</v>
+        <v>317211</v>
       </c>
       <c r="L11">
-        <v>129649</v>
-      </c>
-      <c r="N11" t="s">
-        <v>49</v>
-      </c>
-      <c r="O11">
-        <v>16182</v>
-      </c>
-      <c r="P11">
-        <v>393174</v>
-      </c>
-      <c r="Q11">
-        <v>843494</v>
+        <v>239968</v>
       </c>
     </row>
-    <row r="12" spans="2:17">
+    <row r="12" spans="2:15">
       <c r="B12" s="18"/>
       <c r="C12" s="13" t="s">
         <v>79</v>
@@ -23425,37 +25103,25 @@
       </c>
       <c r="E12" s="27"/>
       <c r="G12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H12">
-        <v>123480</v>
+        <v>129510</v>
       </c>
       <c r="I12">
-        <v>74008</v>
+        <v>84627</v>
       </c>
       <c r="J12">
-        <v>8365</v>
+        <v>7683</v>
       </c>
       <c r="K12">
-        <v>171104</v>
+        <v>159659</v>
       </c>
       <c r="L12">
-        <v>118987</v>
-      </c>
-      <c r="N12" t="s">
-        <v>50</v>
-      </c>
-      <c r="O12">
-        <v>1822</v>
-      </c>
-      <c r="P12">
-        <v>45000</v>
-      </c>
-      <c r="Q12">
-        <v>97442</v>
+        <v>129649</v>
       </c>
     </row>
-    <row r="13" spans="2:17">
+    <row r="13" spans="2:15">
       <c r="B13" s="18"/>
       <c r="C13" s="13"/>
       <c r="D13" s="26" t="s">
@@ -23463,37 +25129,25 @@
       </c>
       <c r="E13" s="27"/>
       <c r="G13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H13">
-        <v>219826</v>
+        <v>123480</v>
       </c>
       <c r="I13">
-        <v>163451</v>
+        <v>74008</v>
       </c>
       <c r="J13">
-        <v>18187</v>
+        <v>8365</v>
       </c>
       <c r="K13">
-        <v>327388</v>
+        <v>171104</v>
       </c>
       <c r="L13">
-        <v>253964</v>
-      </c>
-      <c r="N13" t="s">
-        <v>51</v>
-      </c>
-      <c r="O13">
-        <v>33073</v>
-      </c>
-      <c r="P13">
-        <v>818955</v>
-      </c>
-      <c r="Q13">
-        <v>1769974</v>
+        <v>118987</v>
       </c>
     </row>
-    <row r="14" spans="2:17">
+    <row r="14" spans="2:15">
       <c r="B14" s="18"/>
       <c r="C14" s="13" t="s">
         <v>82</v>
@@ -23503,37 +25157,25 @@
       </c>
       <c r="E14" s="14"/>
       <c r="G14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H14">
-        <v>106021</v>
+        <v>219826</v>
       </c>
       <c r="I14">
-        <v>76184</v>
+        <v>163451</v>
       </c>
       <c r="J14">
-        <v>10173</v>
+        <v>18187</v>
       </c>
       <c r="K14">
-        <v>161784</v>
+        <v>327388</v>
       </c>
       <c r="L14">
-        <v>127509</v>
-      </c>
-      <c r="N14" t="s">
-        <v>52</v>
-      </c>
-      <c r="O14">
-        <v>25505</v>
-      </c>
-      <c r="P14">
-        <v>617777</v>
-      </c>
-      <c r="Q14">
-        <v>1338958</v>
+        <v>253964</v>
       </c>
     </row>
-    <row r="15" spans="2:17">
+    <row r="15" spans="2:15">
       <c r="B15" s="18"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13" t="s">
@@ -23541,25 +25183,25 @@
       </c>
       <c r="E15" s="14"/>
       <c r="G15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H15">
-        <v>121265</v>
+        <v>106021</v>
       </c>
       <c r="I15">
-        <v>71970</v>
+        <v>76184</v>
       </c>
       <c r="J15">
-        <v>6828</v>
+        <v>10173</v>
       </c>
       <c r="K15">
-        <v>162603</v>
+        <v>161784</v>
       </c>
       <c r="L15">
-        <v>128539</v>
+        <v>127509</v>
       </c>
     </row>
-    <row r="16" spans="2:17">
+    <row r="16" spans="2:15">
       <c r="B16" s="12"/>
       <c r="C16" s="13" t="s">
         <v>83</v>
@@ -23569,22 +25211,22 @@
       </c>
       <c r="E16" s="14"/>
       <c r="G16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H16">
-        <v>356998</v>
+        <v>121265</v>
       </c>
       <c r="I16">
-        <v>246170</v>
+        <v>71970</v>
       </c>
       <c r="J16">
-        <v>29713</v>
+        <v>6828</v>
       </c>
       <c r="K16">
-        <v>517392</v>
+        <v>162603</v>
       </c>
       <c r="L16">
-        <v>399253</v>
+        <v>128539</v>
       </c>
     </row>
     <row r="17" spans="2:12">
@@ -23597,22 +25239,22 @@
       </c>
       <c r="E17" s="14"/>
       <c r="G17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H17">
-        <v>113298</v>
+        <v>356998</v>
       </c>
       <c r="I17">
-        <v>98406</v>
+        <v>246170</v>
       </c>
       <c r="J17">
-        <v>9552</v>
+        <v>29713</v>
       </c>
       <c r="K17">
-        <v>164539</v>
+        <v>517392</v>
       </c>
       <c r="L17">
-        <v>126038</v>
+        <v>399253</v>
       </c>
     </row>
     <row r="18" spans="2:12">
@@ -23625,22 +25267,22 @@
       </c>
       <c r="E18" s="14"/>
       <c r="G18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H18">
-        <v>80279</v>
+        <v>113298</v>
       </c>
       <c r="I18">
-        <v>61408</v>
+        <v>98406</v>
       </c>
       <c r="J18">
-        <v>5453</v>
+        <v>9552</v>
       </c>
       <c r="K18">
-        <v>113454</v>
+        <v>164539</v>
       </c>
       <c r="L18">
-        <v>87245</v>
+        <v>126038</v>
       </c>
     </row>
     <row r="19" spans="2:12">
@@ -23653,22 +25295,22 @@
       </c>
       <c r="E19" s="14"/>
       <c r="G19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H19">
-        <v>163592</v>
+        <v>80279</v>
       </c>
       <c r="I19">
-        <v>105770</v>
+        <v>61408</v>
       </c>
       <c r="J19">
-        <v>13213</v>
+        <v>5453</v>
       </c>
       <c r="K19">
-        <v>234342</v>
+        <v>113454</v>
       </c>
       <c r="L19">
-        <v>164688</v>
+        <v>87245</v>
       </c>
     </row>
     <row r="20" spans="2:12" ht="15" thickBot="1">
@@ -23679,126 +25321,156 @@
       </c>
       <c r="E20" s="17"/>
       <c r="G20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H20">
-        <v>89494</v>
+        <v>163592</v>
       </c>
       <c r="I20">
-        <v>45810</v>
+        <v>105770</v>
       </c>
       <c r="J20">
-        <v>8148</v>
+        <v>13213</v>
       </c>
       <c r="K20">
-        <v>142878</v>
+        <v>234342</v>
       </c>
       <c r="L20">
-        <v>102121</v>
+        <v>164688</v>
       </c>
     </row>
     <row r="21" spans="2:12" ht="15" thickTop="1">
       <c r="G21" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21">
+        <v>89494</v>
+      </c>
+      <c r="I21">
+        <v>45810</v>
+      </c>
+      <c r="J21">
+        <v>8148</v>
+      </c>
+      <c r="K21">
+        <v>142878</v>
+      </c>
+      <c r="L21">
+        <v>102121</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="G22" t="s">
         <v>64</v>
       </c>
-      <c r="H21">
+      <c r="H22">
         <v>100269</v>
       </c>
-      <c r="I21">
+      <c r="I22">
         <v>78634</v>
       </c>
-      <c r="J21">
+      <c r="J22">
         <v>6267</v>
       </c>
-      <c r="K21">
+      <c r="K22">
         <v>149648</v>
       </c>
-      <c r="L21">
+      <c r="L22">
         <v>104279</v>
       </c>
     </row>
     <row r="24" spans="2:12">
-      <c r="G24" t="s">
-        <v>65</v>
-      </c>
-      <c r="H24" t="s">
-        <v>66</v>
-      </c>
-      <c r="I24" t="s">
-        <v>67</v>
-      </c>
-      <c r="J24" t="s">
-        <v>68</v>
+      <c r="G24" s="41" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="2:12">
       <c r="G25" t="s">
-        <v>48</v>
-      </c>
-      <c r="H25">
-        <v>304643</v>
-      </c>
-      <c r="I25">
-        <v>284031</v>
-      </c>
-      <c r="J25">
-        <v>1228744</v>
+        <v>65</v>
+      </c>
+      <c r="H25" t="s">
+        <v>66</v>
+      </c>
+      <c r="I25" t="s">
+        <v>67</v>
+      </c>
+      <c r="J25" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="2:12">
       <c r="G26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H26">
-        <v>210484</v>
+        <v>304643</v>
       </c>
       <c r="I26">
-        <v>185995</v>
+        <v>284031</v>
       </c>
       <c r="J26">
-        <v>856371</v>
+        <v>1228744</v>
       </c>
     </row>
     <row r="27" spans="2:12">
       <c r="G27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H27">
-        <v>25234</v>
+        <v>210484</v>
       </c>
       <c r="I27">
-        <v>21829</v>
+        <v>185995</v>
       </c>
       <c r="J27">
-        <v>97201</v>
+        <v>856371</v>
       </c>
     </row>
     <row r="28" spans="2:12">
       <c r="G28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H28">
-        <v>436688</v>
+        <v>25234</v>
       </c>
       <c r="I28">
-        <v>431158</v>
+        <v>21829</v>
       </c>
       <c r="J28">
-        <v>1754156</v>
+        <v>97201</v>
       </c>
     </row>
     <row r="29" spans="2:12">
       <c r="G29" t="s">
+        <v>51</v>
+      </c>
+      <c r="H29">
+        <v>436688</v>
+      </c>
+      <c r="I29">
+        <v>431158</v>
+      </c>
+      <c r="J29">
+        <v>1754156</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12">
+      <c r="G30" t="s">
         <v>52</v>
       </c>
-      <c r="H29">
+      <c r="H30">
         <v>341321</v>
       </c>
-      <c r="I29">
+      <c r="I30">
         <v>296912</v>
       </c>
-      <c r="J29">
+      <c r="J30">
         <v>1344007</v>
+      </c>
+    </row>
+    <row r="33" spans="7:10">
+      <c r="G33" s="41" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="7:10">
@@ -23806,13 +25478,13 @@
         <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I34" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="J34" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="7:10">
@@ -23820,27 +25492,27 @@
         <v>53</v>
       </c>
       <c r="H35">
-        <v>11971</v>
+        <v>1546271</v>
       </c>
       <c r="I35">
-        <v>292830</v>
+        <v>949307</v>
       </c>
       <c r="J35">
-        <v>632858</v>
+        <v>1544426</v>
       </c>
     </row>
     <row r="36" spans="7:10">
       <c r="G36" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="H36">
-        <v>6842</v>
+        <v>788580</v>
       </c>
       <c r="I36">
-        <v>159459</v>
+        <v>481002</v>
       </c>
       <c r="J36">
-        <v>344827</v>
+        <v>790182</v>
       </c>
     </row>
     <row r="37" spans="7:10">
@@ -23848,13 +25520,13 @@
         <v>55</v>
       </c>
       <c r="H37">
-        <v>6026</v>
+        <v>771526</v>
       </c>
       <c r="I37">
-        <v>155621</v>
+        <v>475155</v>
       </c>
       <c r="J37">
-        <v>334297</v>
+        <v>769041</v>
       </c>
     </row>
     <row r="38" spans="7:10">
@@ -23862,27 +25534,27 @@
         <v>56</v>
       </c>
       <c r="H38">
-        <v>13021</v>
+        <v>1535719</v>
       </c>
       <c r="I38">
-        <v>308482</v>
+        <v>947598</v>
       </c>
       <c r="J38">
-        <v>661313</v>
+        <v>1540852</v>
       </c>
     </row>
     <row r="39" spans="7:10">
       <c r="G39" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="H39">
-        <v>5787</v>
+        <v>763520</v>
       </c>
       <c r="I39">
-        <v>152706</v>
+        <v>471613</v>
       </c>
       <c r="J39">
-        <v>323178</v>
+        <v>764431</v>
       </c>
     </row>
     <row r="40" spans="7:10">
@@ -23890,13 +25562,13 @@
         <v>58</v>
       </c>
       <c r="H40">
-        <v>5979</v>
+        <v>786688</v>
       </c>
       <c r="I40">
-        <v>152379</v>
+        <v>483885</v>
       </c>
       <c r="J40">
-        <v>332847</v>
+        <v>792749</v>
       </c>
     </row>
     <row r="41" spans="7:10">
@@ -23904,13 +25576,13 @@
         <v>59</v>
       </c>
       <c r="H41">
-        <v>20354</v>
+        <v>2465441</v>
       </c>
       <c r="I41">
-        <v>482525</v>
+        <v>1520420</v>
       </c>
       <c r="J41">
-        <v>1046647</v>
+        <v>2468571</v>
       </c>
     </row>
     <row r="42" spans="7:10">
@@ -23918,13 +25590,13 @@
         <v>60</v>
       </c>
       <c r="H42">
-        <v>6755</v>
+        <v>812620</v>
       </c>
       <c r="I42">
-        <v>159290</v>
+        <v>498331</v>
       </c>
       <c r="J42">
-        <v>345788</v>
+        <v>808940</v>
       </c>
     </row>
     <row r="43" spans="7:10">
@@ -23932,13 +25604,13 @@
         <v>61</v>
       </c>
       <c r="H43">
-        <v>4299</v>
+        <v>522606</v>
       </c>
       <c r="I43">
-        <v>107804</v>
+        <v>320881</v>
       </c>
       <c r="J43">
-        <v>235736</v>
+        <v>523893</v>
       </c>
     </row>
     <row r="44" spans="7:10">
@@ -23946,13 +25618,13 @@
         <v>62</v>
       </c>
       <c r="H44">
-        <v>8523</v>
+        <v>1069291</v>
       </c>
       <c r="I44">
-        <v>212822</v>
+        <v>662832</v>
       </c>
       <c r="J44">
-        <v>460260</v>
+        <v>1077317</v>
       </c>
     </row>
     <row r="45" spans="7:10">
@@ -23960,13 +25632,13 @@
         <v>63</v>
       </c>
       <c r="H45">
-        <v>4715</v>
+        <v>594752</v>
       </c>
       <c r="I45">
-        <v>121271</v>
+        <v>363479</v>
       </c>
       <c r="J45">
-        <v>262465</v>
+        <v>592242</v>
       </c>
     </row>
     <row r="46" spans="7:10">
@@ -23974,13 +25646,582 @@
         <v>64</v>
       </c>
       <c r="H46">
-        <v>5266</v>
+        <v>722476</v>
       </c>
       <c r="I46">
-        <v>137695</v>
+        <v>447308</v>
       </c>
       <c r="J46">
-        <v>296136</v>
+        <v>728030</v>
+      </c>
+    </row>
+    <row r="49" spans="7:14">
+      <c r="G49" s="41" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="50" spans="7:14">
+      <c r="G50" t="s">
+        <v>65</v>
+      </c>
+      <c r="H50" t="s">
+        <v>108</v>
+      </c>
+      <c r="I50" t="s">
+        <v>109</v>
+      </c>
+      <c r="J50" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="51" spans="7:14">
+      <c r="G51" t="s">
+        <v>48</v>
+      </c>
+      <c r="H51">
+        <v>22956</v>
+      </c>
+      <c r="I51">
+        <v>567978</v>
+      </c>
+      <c r="J51">
+        <v>1226484</v>
+      </c>
+    </row>
+    <row r="52" spans="7:14">
+      <c r="G52" t="s">
+        <v>49</v>
+      </c>
+      <c r="H52">
+        <v>16182</v>
+      </c>
+      <c r="I52">
+        <v>393174</v>
+      </c>
+      <c r="J52">
+        <v>843494</v>
+      </c>
+    </row>
+    <row r="53" spans="7:14">
+      <c r="G53" t="s">
+        <v>50</v>
+      </c>
+      <c r="H53">
+        <v>1822</v>
+      </c>
+      <c r="I53">
+        <v>45000</v>
+      </c>
+      <c r="J53">
+        <v>97442</v>
+      </c>
+    </row>
+    <row r="54" spans="7:14">
+      <c r="G54" t="s">
+        <v>51</v>
+      </c>
+      <c r="H54">
+        <v>33073</v>
+      </c>
+      <c r="I54">
+        <v>818955</v>
+      </c>
+      <c r="J54">
+        <v>1769974</v>
+      </c>
+    </row>
+    <row r="55" spans="7:14">
+      <c r="G55" t="s">
+        <v>52</v>
+      </c>
+      <c r="H55">
+        <v>25505</v>
+      </c>
+      <c r="I55">
+        <v>617777</v>
+      </c>
+      <c r="J55">
+        <v>1338958</v>
+      </c>
+    </row>
+    <row r="58" spans="7:14">
+      <c r="G58" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="H58" t="s">
+        <v>48</v>
+      </c>
+      <c r="I58" t="s">
+        <v>49</v>
+      </c>
+      <c r="J58" t="s">
+        <v>50</v>
+      </c>
+      <c r="K58" t="s">
+        <v>51</v>
+      </c>
+      <c r="L58" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="7:14">
+      <c r="G59" t="s">
+        <v>119</v>
+      </c>
+      <c r="H59">
+        <v>213386</v>
+      </c>
+      <c r="I59">
+        <v>146412</v>
+      </c>
+      <c r="J59">
+        <v>20682</v>
+      </c>
+      <c r="K59">
+        <v>317211</v>
+      </c>
+      <c r="L59">
+        <v>239968</v>
+      </c>
+      <c r="M59" s="47">
+        <f>SUM(H59:L59)</f>
+        <v>937659</v>
+      </c>
+      <c r="N59">
+        <f>M59/M71</f>
+        <v>0.11992404435784945</v>
+      </c>
+    </row>
+    <row r="60" spans="7:14">
+      <c r="G60" t="s">
+        <v>54</v>
+      </c>
+      <c r="H60">
+        <v>129510</v>
+      </c>
+      <c r="I60">
+        <v>84627</v>
+      </c>
+      <c r="J60">
+        <v>7683</v>
+      </c>
+      <c r="K60">
+        <v>159659</v>
+      </c>
+      <c r="L60">
+        <v>129649</v>
+      </c>
+      <c r="M60" s="47">
+        <f t="shared" ref="M60:M71" si="0">SUM(H60:L60)</f>
+        <v>511128</v>
+      </c>
+      <c r="N60">
+        <f>M60/M71</f>
+        <v>6.5371885669032001E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="7:14">
+      <c r="G61" t="s">
+        <v>55</v>
+      </c>
+      <c r="H61">
+        <v>123480</v>
+      </c>
+      <c r="I61">
+        <v>74008</v>
+      </c>
+      <c r="J61">
+        <v>8365</v>
+      </c>
+      <c r="K61">
+        <v>171104</v>
+      </c>
+      <c r="L61">
+        <v>118987</v>
+      </c>
+      <c r="M61" s="47">
+        <f t="shared" si="0"/>
+        <v>495944</v>
+      </c>
+      <c r="N61">
+        <f>M61/M71</f>
+        <v>6.3429893228784978E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="7:14">
+      <c r="G62" t="s">
+        <v>56</v>
+      </c>
+      <c r="H62">
+        <v>219826</v>
+      </c>
+      <c r="I62">
+        <v>163451</v>
+      </c>
+      <c r="J62">
+        <v>18187</v>
+      </c>
+      <c r="K62">
+        <v>327388</v>
+      </c>
+      <c r="L62">
+        <v>253964</v>
+      </c>
+      <c r="M62" s="47">
+        <f t="shared" si="0"/>
+        <v>982816</v>
+      </c>
+      <c r="N62">
+        <f>M62/M71</f>
+        <v>0.12569950224932963</v>
+      </c>
+    </row>
+    <row r="63" spans="7:14">
+      <c r="G63" t="s">
+        <v>57</v>
+      </c>
+      <c r="H63">
+        <v>106021</v>
+      </c>
+      <c r="I63">
+        <v>76184</v>
+      </c>
+      <c r="J63">
+        <v>10173</v>
+      </c>
+      <c r="K63">
+        <v>161784</v>
+      </c>
+      <c r="L63">
+        <v>127509</v>
+      </c>
+      <c r="M63" s="47">
+        <f t="shared" si="0"/>
+        <v>481671</v>
+      </c>
+      <c r="N63">
+        <f>M63/M71</f>
+        <v>6.1604415219061195E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="7:14">
+      <c r="G64" t="s">
+        <v>58</v>
+      </c>
+      <c r="H64">
+        <v>121265</v>
+      </c>
+      <c r="I64">
+        <v>71970</v>
+      </c>
+      <c r="J64">
+        <v>6828</v>
+      </c>
+      <c r="K64">
+        <v>162603</v>
+      </c>
+      <c r="L64">
+        <v>128539</v>
+      </c>
+      <c r="M64" s="47">
+        <f t="shared" si="0"/>
+        <v>491205</v>
+      </c>
+      <c r="N64">
+        <f>M64/M71</f>
+        <v>6.2823787974943382E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="7:14">
+      <c r="G65" t="s">
+        <v>59</v>
+      </c>
+      <c r="H65">
+        <v>356998</v>
+      </c>
+      <c r="I65">
+        <v>246170</v>
+      </c>
+      <c r="J65">
+        <v>29713</v>
+      </c>
+      <c r="K65">
+        <v>517392</v>
+      </c>
+      <c r="L65">
+        <v>399253</v>
+      </c>
+      <c r="M65" s="47">
+        <f t="shared" si="0"/>
+        <v>1549526</v>
+      </c>
+      <c r="N65">
+        <f>M65/M71</f>
+        <v>0.19818017505046187</v>
+      </c>
+    </row>
+    <row r="66" spans="7:14">
+      <c r="G66" t="s">
+        <v>60</v>
+      </c>
+      <c r="H66">
+        <v>113298</v>
+      </c>
+      <c r="I66">
+        <v>98406</v>
+      </c>
+      <c r="J66">
+        <v>9552</v>
+      </c>
+      <c r="K66">
+        <v>164539</v>
+      </c>
+      <c r="L66">
+        <v>126038</v>
+      </c>
+      <c r="M66" s="47">
+        <f t="shared" si="0"/>
+        <v>511833</v>
+      </c>
+      <c r="N66">
+        <f>M66/M71</f>
+        <v>6.5462053257966016E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="7:14">
+      <c r="G67" t="s">
+        <v>61</v>
+      </c>
+      <c r="H67">
+        <v>80279</v>
+      </c>
+      <c r="I67">
+        <v>61408</v>
+      </c>
+      <c r="J67">
+        <v>5453</v>
+      </c>
+      <c r="K67">
+        <v>113454</v>
+      </c>
+      <c r="L67">
+        <v>87245</v>
+      </c>
+      <c r="M67" s="47">
+        <f t="shared" si="0"/>
+        <v>347839</v>
+      </c>
+      <c r="N67">
+        <f>M67/M71</f>
+        <v>4.4487665201731114E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="7:14">
+      <c r="G68" t="s">
+        <v>62</v>
+      </c>
+      <c r="H68">
+        <v>163592</v>
+      </c>
+      <c r="I68">
+        <v>105770</v>
+      </c>
+      <c r="J68">
+        <v>13213</v>
+      </c>
+      <c r="K68">
+        <v>234342</v>
+      </c>
+      <c r="L68">
+        <v>164688</v>
+      </c>
+      <c r="M68" s="47">
+        <f t="shared" si="0"/>
+        <v>681605</v>
+      </c>
+      <c r="N68">
+        <f>M68/M71</f>
+        <v>8.7175431851592072E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="7:14">
+      <c r="G69" t="s">
+        <v>63</v>
+      </c>
+      <c r="H69">
+        <v>89494</v>
+      </c>
+      <c r="I69">
+        <v>45810</v>
+      </c>
+      <c r="J69">
+        <v>8148</v>
+      </c>
+      <c r="K69">
+        <v>142878</v>
+      </c>
+      <c r="L69">
+        <v>102121</v>
+      </c>
+      <c r="M69" s="47">
+        <f t="shared" si="0"/>
+        <v>388451</v>
+      </c>
+      <c r="N69">
+        <f>M69/M71</f>
+        <v>4.9681829913487713E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="7:14">
+      <c r="G70" t="s">
+        <v>64</v>
+      </c>
+      <c r="H70">
+        <v>100269</v>
+      </c>
+      <c r="I70">
+        <v>78634</v>
+      </c>
+      <c r="J70">
+        <v>6267</v>
+      </c>
+      <c r="K70">
+        <v>149648</v>
+      </c>
+      <c r="L70">
+        <v>104279</v>
+      </c>
+      <c r="M70" s="48">
+        <f t="shared" si="0"/>
+        <v>439097</v>
+      </c>
+      <c r="N70">
+        <f>M70/M71</f>
+        <v>5.6159316025760561E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="7:14">
+      <c r="H71" s="49">
+        <v>1817418</v>
+      </c>
+      <c r="I71" s="49">
+        <v>1252850</v>
+      </c>
+      <c r="J71" s="49">
+        <v>144264</v>
+      </c>
+      <c r="K71" s="49">
+        <v>2622002</v>
+      </c>
+      <c r="L71" s="50">
+        <v>1982240</v>
+      </c>
+      <c r="M71" s="46">
+        <f t="shared" si="0"/>
+        <v>7818774</v>
+      </c>
+    </row>
+    <row r="72" spans="7:14">
+      <c r="H72" s="51">
+        <f>H71/M71</f>
+        <v>0.23244283566707516</v>
+      </c>
+      <c r="I72" s="51">
+        <f>I71/M71</f>
+        <v>0.16023611885955522</v>
+      </c>
+      <c r="J72" s="51">
+        <f>J71/M71</f>
+        <v>1.8450974538975037E-2</v>
+      </c>
+      <c r="K72" s="51">
+        <f>K71/M71</f>
+        <v>0.33534694825557049</v>
+      </c>
+      <c r="L72" s="51">
+        <f>L71/M71</f>
+        <v>0.2535231226788241</v>
+      </c>
+      <c r="M72" s="51"/>
+    </row>
+    <row r="74" spans="7:14">
+      <c r="G74" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="H74" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="75" spans="7:14">
+      <c r="G75" t="s">
+        <v>120</v>
+      </c>
+      <c r="H75">
+        <f>N59+N60</f>
+        <v>0.18529593002688144</v>
+      </c>
+    </row>
+    <row r="76" spans="7:14">
+      <c r="G76" t="s">
+        <v>122</v>
+      </c>
+      <c r="H76">
+        <f>N61</f>
+        <v>6.3429893228784978E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="7:14">
+      <c r="G77" t="s">
+        <v>121</v>
+      </c>
+      <c r="H77">
+        <f>N62+N63</f>
+        <v>0.18730391746839081</v>
+      </c>
+    </row>
+    <row r="78" spans="7:14">
+      <c r="G78" t="s">
+        <v>123</v>
+      </c>
+      <c r="H78">
+        <f>N64</f>
+        <v>6.2823787974943382E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="7:14">
+      <c r="G79" t="s">
+        <v>124</v>
+      </c>
+      <c r="H79">
+        <f>N65</f>
+        <v>0.19818017505046187</v>
+      </c>
+    </row>
+    <row r="80" spans="7:14">
+      <c r="G80" t="s">
+        <v>125</v>
+      </c>
+      <c r="H80">
+        <f>N66</f>
+        <v>6.5462053257966016E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="7:8">
+      <c r="G81" t="s">
+        <v>126</v>
+      </c>
+      <c r="H81">
+        <f>N67+N68+N69</f>
+        <v>0.1813449269668109</v>
+      </c>
+    </row>
+    <row r="82" spans="7:8">
+      <c r="G82" t="s">
+        <v>127</v>
+      </c>
+      <c r="H82">
+        <f>N70</f>
+        <v>5.6159316025760561E-2</v>
       </c>
     </row>
   </sheetData>
@@ -23995,10 +26236,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="B1:X120"/>
+  <dimension ref="B1:Z139"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="X94" sqref="X94"/>
+    <sheetView showGridLines="0" topLeftCell="A111" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Z44" sqref="Z44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -24022,81 +26263,239 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="2:16">
+    <row r="33" spans="2:26">
       <c r="B33" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="2:16">
-      <c r="P48" t="s">
-        <v>108</v>
+    <row r="36" spans="2:26">
+      <c r="W36" t="s">
+        <v>168</v>
+      </c>
+      <c r="X36" t="s">
+        <v>169</v>
       </c>
     </row>
-    <row r="53" spans="2:2">
-      <c r="B53" t="s">
+    <row r="37" spans="2:26">
+      <c r="X37" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="38" spans="2:26">
+      <c r="X38" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26">
+      <c r="Z44" s="41"/>
+    </row>
+    <row r="54" spans="5:12">
+      <c r="E54" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="F54" s="46"/>
+      <c r="G54" s="46"/>
+    </row>
+    <row r="57" spans="5:12">
+      <c r="J57" t="s">
+        <v>130</v>
+      </c>
+      <c r="L57" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="58" spans="5:12">
+      <c r="J58" t="s">
+        <v>131</v>
+      </c>
+      <c r="L58" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="59" spans="5:12">
+      <c r="J59" t="s">
+        <v>132</v>
+      </c>
+      <c r="L59" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="60" spans="5:12">
+      <c r="J60" t="s">
+        <v>129</v>
+      </c>
+      <c r="L60" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="61" spans="5:12">
+      <c r="J61" t="s">
+        <v>133</v>
+      </c>
+      <c r="L61" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="62" spans="5:12">
+      <c r="J62" t="s">
+        <v>134</v>
+      </c>
+      <c r="L62" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="63" spans="5:12">
+      <c r="J63" t="s">
+        <v>135</v>
+      </c>
+      <c r="L63" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="64" spans="5:12">
+      <c r="J64" t="s">
+        <v>136</v>
+      </c>
+      <c r="L64" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="65" spans="3:12">
+      <c r="J65" t="s">
+        <v>137</v>
+      </c>
+      <c r="L65" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="66" spans="3:12">
+      <c r="J66" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="67" spans="3:12">
+      <c r="J67" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="68" spans="3:12">
+      <c r="J68" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="71" spans="3:12">
+      <c r="C71" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" spans="3:12">
+      <c r="E75" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="F75" s="46"/>
+      <c r="G75" s="46"/>
+    </row>
+    <row r="79" spans="3:12">
+      <c r="J79" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="80" spans="3:12">
+      <c r="J80" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19">
+      <c r="J81" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19">
+      <c r="J82" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="83" spans="3:19">
+      <c r="J83" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19">
+      <c r="J84" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19">
+      <c r="J85" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19">
+      <c r="C93" t="s">
+        <v>95</v>
+      </c>
+      <c r="S93" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="99" spans="4:8">
+      <c r="D99" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="E99" s="46"/>
+      <c r="F99" s="46"/>
+      <c r="G99" s="46"/>
+      <c r="H99" s="46"/>
+    </row>
+    <row r="116" spans="3:20">
+      <c r="C116" t="s">
         <v>93</v>
       </c>
+      <c r="T116" t="s">
+        <v>164</v>
+      </c>
     </row>
-    <row r="68" spans="3:16">
-      <c r="P68" t="s">
-        <v>94</v>
-      </c>
+    <row r="119" spans="3:20">
+      <c r="E119" s="51"/>
+      <c r="F119" s="51"/>
+      <c r="G119" s="51"/>
     </row>
-    <row r="76" spans="3:16">
-      <c r="C76" t="s">
-        <v>96</v>
-      </c>
+    <row r="120" spans="3:20">
+      <c r="D120" s="53" t="s">
+        <v>163</v>
+      </c>
+      <c r="E120" s="53"/>
+      <c r="F120" s="54"/>
+      <c r="G120" s="55"/>
+      <c r="H120" s="51"/>
     </row>
-    <row r="91" spans="16:24">
-      <c r="P91" t="s">
-        <v>101</v>
-      </c>
-      <c r="X91" t="s">
-        <v>101</v>
+    <row r="135" spans="4:19">
+      <c r="D135" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="F135" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="H135" s="46" t="s">
+        <v>162</v>
       </c>
     </row>
-    <row r="92" spans="16:24">
-      <c r="P92" t="s">
+    <row r="137" spans="4:19">
+      <c r="D137" t="s">
+        <v>97</v>
+      </c>
+      <c r="S137" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="138" spans="4:19">
+      <c r="D138" t="s">
         <v>98</v>
       </c>
-      <c r="X92" t="s">
-        <v>122</v>
-      </c>
     </row>
-    <row r="93" spans="16:24">
-      <c r="P93" t="s">
+    <row r="139" spans="4:19">
+      <c r="D139" t="s">
         <v>99</v>
-      </c>
-      <c r="X93" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="94" spans="16:24">
-      <c r="P94" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="99" spans="3:3">
-      <c r="C99" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="100" spans="3:3">
-      <c r="C100" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="115" spans="4:14">
-      <c r="N115" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="116" spans="4:14" ht="18">
-      <c r="J116" s="44"/>
-    </row>
-    <row r="120" spans="4:14">
-      <c r="D120" t="s">
-        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -24113,8 +26512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:Q45"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -24145,10 +26544,10 @@
     </row>
     <row r="14" spans="2:17" ht="86.4">
       <c r="B14" s="40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="2:17">
@@ -24162,10 +26561,10 @@
     </row>
     <row r="18" spans="2:4" ht="72">
       <c r="B18" s="40" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -24179,10 +26578,10 @@
     </row>
     <row r="22" spans="2:4" ht="86.4">
       <c r="B22" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D22" s="43" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="2:4">
@@ -24201,10 +26600,10 @@
     </row>
     <row r="26" spans="2:4" ht="72">
       <c r="B26" s="40" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D26" s="43" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="2:4">
@@ -24222,10 +26621,10 @@
     </row>
     <row r="30" spans="2:4" ht="115.2">
       <c r="B30" s="40" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D30" s="40" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="2:4">
@@ -24241,12 +26640,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="57.6">
+    <row r="34" spans="2:4" ht="72">
       <c r="B34" s="40" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D34" s="40" t="s">
-        <v>116</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="2:4">
@@ -24262,25 +26661,25 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="2:4" ht="72">
+    <row r="38" spans="2:4" ht="43.2">
       <c r="B38" s="40" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D38" s="40" t="s">
-        <v>118</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41" spans="2:4">
       <c r="B41" s="41" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="2:4" ht="43.2">
       <c r="B42" s="40" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D42" s="40" t="s">
-        <v>121</v>
+        <v>172</v>
       </c>
     </row>
     <row r="45" spans="2:4">
